--- a/data/pca/factorExposure/factorExposure_2019-05-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1280757290484725</v>
+        <v>0.07780624907957946</v>
       </c>
       <c r="C2">
-        <v>0.01515146749761336</v>
+        <v>-0.01849341263382496</v>
       </c>
       <c r="D2">
-        <v>-0.03857737534980282</v>
+        <v>0.04123891505992075</v>
       </c>
       <c r="E2">
-        <v>0.09466966312846117</v>
+        <v>0.04700082902330541</v>
       </c>
       <c r="F2">
-        <v>-0.0998504230327799</v>
+        <v>-0.1327156589850315</v>
       </c>
       <c r="G2">
-        <v>-0.12850923355575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09124798508894848</v>
+      </c>
+      <c r="H2">
+        <v>-0.08750090617352099</v>
+      </c>
+      <c r="I2">
+        <v>-0.02541725068522483</v>
+      </c>
+      <c r="J2">
+        <v>0.04332229006351706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2128421908706969</v>
+        <v>0.1561561462139307</v>
       </c>
       <c r="C3">
-        <v>-0.0920490862258132</v>
+        <v>-0.0870219518001922</v>
       </c>
       <c r="D3">
-        <v>0.02223329640359021</v>
+        <v>-0.03591331058850857</v>
       </c>
       <c r="E3">
-        <v>0.3262332767098807</v>
+        <v>0.06424662014893003</v>
       </c>
       <c r="F3">
-        <v>-0.02466536105393202</v>
+        <v>-0.3777151138601454</v>
       </c>
       <c r="G3">
-        <v>-0.3538792188151407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01169889076886396</v>
+      </c>
+      <c r="H3">
+        <v>-0.2856225732976077</v>
+      </c>
+      <c r="I3">
+        <v>-0.1679762002716127</v>
+      </c>
+      <c r="J3">
+        <v>0.3865820240010908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09763627714355512</v>
+        <v>0.07194283557958836</v>
       </c>
       <c r="C4">
-        <v>-0.02701882500291425</v>
+        <v>-0.03682010571337258</v>
       </c>
       <c r="D4">
-        <v>-0.0176025004112294</v>
+        <v>0.02265534599655844</v>
       </c>
       <c r="E4">
-        <v>0.07402356997553379</v>
+        <v>-0.01647579873510911</v>
       </c>
       <c r="F4">
-        <v>-0.05108794532862134</v>
+        <v>-0.09389819737775978</v>
       </c>
       <c r="G4">
-        <v>-0.03512758596887028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03443339078086101</v>
+      </c>
+      <c r="H4">
+        <v>-0.03144693154232249</v>
+      </c>
+      <c r="I4">
+        <v>-0.02454090144722941</v>
+      </c>
+      <c r="J4">
+        <v>0.04293750497670722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01599421699405427</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003995293797361722</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0009685824500966108</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.004586418919456001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.000894012255055376</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01881246520530639</v>
+      </c>
+      <c r="H6">
+        <v>0.000128001599077895</v>
+      </c>
+      <c r="I6">
+        <v>0.006092795526955291</v>
+      </c>
+      <c r="J6">
+        <v>-0.001068929715235074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04159268012058222</v>
+        <v>0.03139882431085492</v>
       </c>
       <c r="C7">
-        <v>-0.005410372419829008</v>
+        <v>-0.01760094807160935</v>
       </c>
       <c r="D7">
-        <v>-0.03458504314116781</v>
+        <v>0.01863812807437156</v>
       </c>
       <c r="E7">
-        <v>0.07857234357054686</v>
+        <v>-0.002066866123627786</v>
       </c>
       <c r="F7">
-        <v>0.03760362019135313</v>
+        <v>-0.06158074002499367</v>
       </c>
       <c r="G7">
-        <v>-0.01842099787562437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01518031727926086</v>
+      </c>
+      <c r="H7">
+        <v>-0.0498058232119928</v>
+      </c>
+      <c r="I7">
+        <v>0.0004837584466431212</v>
+      </c>
+      <c r="J7">
+        <v>0.01057011090736691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04223354442758773</v>
+        <v>0.03090593790712737</v>
       </c>
       <c r="C8">
-        <v>-0.03833481937505667</v>
+        <v>-0.03915103738210792</v>
       </c>
       <c r="D8">
-        <v>0.0006019381563769528</v>
+        <v>0.005182253046514674</v>
       </c>
       <c r="E8">
-        <v>0.0719880693462079</v>
+        <v>-0.008982309847975848</v>
       </c>
       <c r="F8">
-        <v>-0.002239116617830404</v>
+        <v>-0.08630347492599724</v>
       </c>
       <c r="G8">
-        <v>-0.05415163455487981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.00100613430986454</v>
+      </c>
+      <c r="H8">
+        <v>-0.05443006323892581</v>
+      </c>
+      <c r="I8">
+        <v>-0.02800381087269609</v>
+      </c>
+      <c r="J8">
+        <v>0.03909145848890017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08567504856600906</v>
+        <v>0.06087384316655516</v>
       </c>
       <c r="C9">
-        <v>-0.03052384200986133</v>
+        <v>-0.03687314295783042</v>
       </c>
       <c r="D9">
-        <v>-0.02875011970697008</v>
+        <v>0.02341503203868497</v>
       </c>
       <c r="E9">
-        <v>0.06725702043495005</v>
+        <v>-0.01926845671728548</v>
       </c>
       <c r="F9">
-        <v>-0.0324288555885967</v>
+        <v>-0.09494201921354377</v>
       </c>
       <c r="G9">
-        <v>-0.03405086492883386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02620869525694789</v>
+      </c>
+      <c r="H9">
+        <v>-0.02822201288481195</v>
+      </c>
+      <c r="I9">
+        <v>-0.004363460965486744</v>
+      </c>
+      <c r="J9">
+        <v>0.006512976196298426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.00763997323404183</v>
+        <v>0.01515446993579332</v>
       </c>
       <c r="C10">
-        <v>0.1593873035388312</v>
+        <v>0.1582014087572887</v>
       </c>
       <c r="D10">
-        <v>0.006434913877450508</v>
+        <v>-0.01197857868558498</v>
       </c>
       <c r="E10">
-        <v>0.05800458951399361</v>
+        <v>0.03152079550947515</v>
       </c>
       <c r="F10">
-        <v>-0.01569220330359962</v>
+        <v>-0.05635608059623474</v>
       </c>
       <c r="G10">
-        <v>0.004377405607666887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0220691452701237</v>
+      </c>
+      <c r="H10">
+        <v>0.005739212586192974</v>
+      </c>
+      <c r="I10">
+        <v>-0.119906143252997</v>
+      </c>
+      <c r="J10">
+        <v>0.006865955617754259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05708695690553213</v>
+        <v>0.04792081328994063</v>
       </c>
       <c r="C11">
-        <v>-0.005430205433847966</v>
+        <v>-0.02266496610901866</v>
       </c>
       <c r="D11">
-        <v>0.009004510025719789</v>
+        <v>0.005727579653757895</v>
       </c>
       <c r="E11">
-        <v>0.04134973193807642</v>
+        <v>0.01772324006196609</v>
       </c>
       <c r="F11">
-        <v>-0.007222863831050195</v>
+        <v>-0.04324447377013004</v>
       </c>
       <c r="G11">
-        <v>0.02018655704423199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002123368444458804</v>
+      </c>
+      <c r="H11">
+        <v>-0.01336314407072697</v>
+      </c>
+      <c r="I11">
+        <v>0.01894065104091806</v>
+      </c>
+      <c r="J11">
+        <v>0.01051294464086012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04252490822392756</v>
+        <v>0.04352989807607681</v>
       </c>
       <c r="C12">
-        <v>-0.01176024481209218</v>
+        <v>-0.02321643833085692</v>
       </c>
       <c r="D12">
-        <v>0.00576707441593584</v>
+        <v>0.005750544499605543</v>
       </c>
       <c r="E12">
-        <v>0.03365612330207721</v>
+        <v>0.002609047842626425</v>
       </c>
       <c r="F12">
-        <v>-0.002969172978910387</v>
+        <v>-0.02536825215240356</v>
       </c>
       <c r="G12">
-        <v>0.001296247030890749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004330205476350359</v>
+      </c>
+      <c r="H12">
+        <v>-0.01083342350416626</v>
+      </c>
+      <c r="I12">
+        <v>0.01832457551485172</v>
+      </c>
+      <c r="J12">
+        <v>0.003639502513296236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05922656682055601</v>
+        <v>0.03985728363956471</v>
       </c>
       <c r="C13">
-        <v>-0.01681788332840976</v>
+        <v>-0.02234127738920479</v>
       </c>
       <c r="D13">
-        <v>0.008982025122570486</v>
+        <v>0.008027426294117216</v>
       </c>
       <c r="E13">
-        <v>0.1114627203864143</v>
+        <v>0.03507672138648072</v>
       </c>
       <c r="F13">
-        <v>-0.02469200812323736</v>
+        <v>-0.100546087590931</v>
       </c>
       <c r="G13">
-        <v>-0.05264244764693542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.007850242330974378</v>
+      </c>
+      <c r="H13">
+        <v>-0.06066530976073244</v>
+      </c>
+      <c r="I13">
+        <v>-0.009755727653258828</v>
+      </c>
+      <c r="J13">
+        <v>0.03211163397485706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0380650211827632</v>
+        <v>0.02809475038190562</v>
       </c>
       <c r="C14">
-        <v>-0.009548988536363965</v>
+        <v>-0.01626829149094044</v>
       </c>
       <c r="D14">
-        <v>-0.02019363841844839</v>
+        <v>0.0221102029927785</v>
       </c>
       <c r="E14">
-        <v>0.02178620799416483</v>
+        <v>-0.002792089016102102</v>
       </c>
       <c r="F14">
-        <v>0.003704147574569092</v>
+        <v>-0.04023745117157448</v>
       </c>
       <c r="G14">
-        <v>-0.03928076964848547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01256228802336377</v>
+      </c>
+      <c r="H14">
+        <v>-0.05809136204312011</v>
+      </c>
+      <c r="I14">
+        <v>-0.01456958818217321</v>
+      </c>
+      <c r="J14">
+        <v>-0.009297186340297171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04724134208694613</v>
+        <v>0.04192957372785019</v>
       </c>
       <c r="C16">
-        <v>-0.02148115969894336</v>
+        <v>-0.03096271818973227</v>
       </c>
       <c r="D16">
-        <v>0.01666446577241715</v>
+        <v>0.000593545419033104</v>
       </c>
       <c r="E16">
-        <v>0.03854378991791495</v>
+        <v>0.013231911186291</v>
       </c>
       <c r="F16">
-        <v>-0.001290783811045136</v>
+        <v>-0.03657308798388664</v>
       </c>
       <c r="G16">
-        <v>0.01423527390568189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.009399623040531749</v>
+      </c>
+      <c r="H16">
+        <v>-0.01576022311384699</v>
+      </c>
+      <c r="I16">
+        <v>0.01585590512098245</v>
+      </c>
+      <c r="J16">
+        <v>0.008585606692379306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05005110239534728</v>
+        <v>0.04374862623728126</v>
       </c>
       <c r="C19">
-        <v>-0.02663063023883047</v>
+        <v>-0.03442581453157445</v>
       </c>
       <c r="D19">
-        <v>-2.243574723615927e-05</v>
+        <v>0.008776109405060989</v>
       </c>
       <c r="E19">
-        <v>0.07924986709768859</v>
+        <v>0.0157465476011876</v>
       </c>
       <c r="F19">
-        <v>0.004033434725937303</v>
+        <v>-0.09101682814940029</v>
       </c>
       <c r="G19">
-        <v>-0.07311030779094314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.004908962014296832</v>
+      </c>
+      <c r="H19">
+        <v>-0.08548387056809911</v>
+      </c>
+      <c r="I19">
+        <v>-0.03530008913101335</v>
+      </c>
+      <c r="J19">
+        <v>0.0244112386748454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03706138281612093</v>
+        <v>0.01689723010642945</v>
       </c>
       <c r="C20">
-        <v>-0.0350516542058139</v>
+        <v>-0.03284570793165096</v>
       </c>
       <c r="D20">
-        <v>-0.01263804230451896</v>
+        <v>0.01396474532078274</v>
       </c>
       <c r="E20">
-        <v>0.06903475063626205</v>
+        <v>0.0003495829435237654</v>
       </c>
       <c r="F20">
-        <v>0.01200757682433069</v>
+        <v>-0.07565942354592248</v>
       </c>
       <c r="G20">
-        <v>-0.04295615366205085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01079871929219536</v>
+      </c>
+      <c r="H20">
+        <v>-0.07491427373910051</v>
+      </c>
+      <c r="I20">
+        <v>-0.013564137728082</v>
+      </c>
+      <c r="J20">
+        <v>0.0498239346791045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03825812875428285</v>
+        <v>0.01889456656274375</v>
       </c>
       <c r="C21">
-        <v>-0.01665162768073389</v>
+        <v>-0.02597363834532378</v>
       </c>
       <c r="D21">
-        <v>0.001258570947885611</v>
+        <v>-0.003449733714851101</v>
       </c>
       <c r="E21">
-        <v>0.08842624918407534</v>
+        <v>0.003077193658999201</v>
       </c>
       <c r="F21">
-        <v>-0.04942145115135584</v>
+        <v>-0.08114896980495886</v>
       </c>
       <c r="G21">
-        <v>-0.0432839355393188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02127086496025205</v>
+      </c>
+      <c r="H21">
+        <v>-0.03968555887832884</v>
+      </c>
+      <c r="I21">
+        <v>0.007444813887934225</v>
+      </c>
+      <c r="J21">
+        <v>-0.01625847392643253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04780432177713709</v>
+        <v>0.04072252433380504</v>
       </c>
       <c r="C24">
-        <v>-0.01389534624483327</v>
+        <v>-0.02016587155194221</v>
       </c>
       <c r="D24">
-        <v>0.004087145842631664</v>
+        <v>0.005501085706394931</v>
       </c>
       <c r="E24">
-        <v>0.04858043165806557</v>
+        <v>0.01113791004370359</v>
       </c>
       <c r="F24">
-        <v>-0.003978223175705294</v>
+        <v>-0.0450153186052226</v>
       </c>
       <c r="G24">
-        <v>0.009110444351783315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009722757011040155</v>
+      </c>
+      <c r="H24">
+        <v>-0.01402193047680033</v>
+      </c>
+      <c r="I24">
+        <v>0.01581148558380702</v>
+      </c>
+      <c r="J24">
+        <v>0.01890247372804459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04779814304235969</v>
+        <v>0.04191184882481278</v>
       </c>
       <c r="C25">
-        <v>-0.003858829099667884</v>
+        <v>-0.02015813536979098</v>
       </c>
       <c r="D25">
-        <v>0.005807152010946227</v>
+        <v>0.003717609641505281</v>
       </c>
       <c r="E25">
-        <v>0.04591819899613556</v>
+        <v>0.01356638757639392</v>
       </c>
       <c r="F25">
-        <v>-0.01166112173832505</v>
+        <v>-0.0478250764399358</v>
       </c>
       <c r="G25">
-        <v>0.01040955967735951</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.001999507573713062</v>
+      </c>
+      <c r="H25">
+        <v>-0.009698861779114771</v>
+      </c>
+      <c r="I25">
+        <v>0.01727121058122173</v>
+      </c>
+      <c r="J25">
+        <v>0.008880162350029244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005546989295104573</v>
+        <v>0.01112437396884615</v>
       </c>
       <c r="C26">
-        <v>-0.01654035548442</v>
+        <v>-0.01708010911437888</v>
       </c>
       <c r="D26">
-        <v>-0.005263184249790775</v>
+        <v>-0.0009278795928184515</v>
       </c>
       <c r="E26">
-        <v>0.04956008578199107</v>
+        <v>0.02158110660572432</v>
       </c>
       <c r="F26">
-        <v>-0.01895586389953966</v>
+        <v>-0.05036581569101851</v>
       </c>
       <c r="G26">
-        <v>-0.01434566184570927</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007776309927033639</v>
+      </c>
+      <c r="H26">
+        <v>-0.03840215906148425</v>
+      </c>
+      <c r="I26">
+        <v>0.006703545245587872</v>
+      </c>
+      <c r="J26">
+        <v>0.0134322163266406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.110196729798596</v>
+        <v>0.08372631872631023</v>
       </c>
       <c r="C27">
-        <v>-0.0179104027635664</v>
+        <v>-0.02685614572393448</v>
       </c>
       <c r="D27">
-        <v>-0.0217232867672004</v>
+        <v>0.02841804323901157</v>
       </c>
       <c r="E27">
-        <v>0.1124509186367253</v>
+        <v>-0.00130032422949343</v>
       </c>
       <c r="F27">
-        <v>-0.02871670994706001</v>
+        <v>-0.08965437604264508</v>
       </c>
       <c r="G27">
-        <v>-0.001803508354921246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.006834603888321533</v>
+      </c>
+      <c r="H27">
+        <v>-0.01168013285928016</v>
+      </c>
+      <c r="I27">
+        <v>-0.008827108135206062</v>
+      </c>
+      <c r="J27">
+        <v>0.02916405506153801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.008184323537666342</v>
+        <v>0.02963589781691226</v>
       </c>
       <c r="C28">
-        <v>0.2422581309463101</v>
+        <v>0.2332857945611289</v>
       </c>
       <c r="D28">
-        <v>0.01110212197247595</v>
+        <v>-0.01759072033161362</v>
       </c>
       <c r="E28">
-        <v>0.02923024498889825</v>
+        <v>0.02384211761086966</v>
       </c>
       <c r="F28">
-        <v>-0.01446238214577993</v>
+        <v>-0.0416513849254446</v>
       </c>
       <c r="G28">
-        <v>0.01506816123167227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02677906047979584</v>
+      </c>
+      <c r="H28">
+        <v>0.02469169299893111</v>
+      </c>
+      <c r="I28">
+        <v>-0.1692416323459126</v>
+      </c>
+      <c r="J28">
+        <v>0.02111486301939467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01873839082892317</v>
+        <v>0.01877998710456068</v>
       </c>
       <c r="C29">
-        <v>-0.01801608768935149</v>
+        <v>-0.01863406325400429</v>
       </c>
       <c r="D29">
-        <v>-0.02279408468225044</v>
+        <v>0.02028018021807464</v>
       </c>
       <c r="E29">
-        <v>0.02838313889232823</v>
+        <v>-0.009368626885843129</v>
       </c>
       <c r="F29">
-        <v>-0.007405249429894189</v>
+        <v>-0.04099133837758983</v>
       </c>
       <c r="G29">
-        <v>-0.03818455994860542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01297786334655539</v>
+      </c>
+      <c r="H29">
+        <v>-0.05648839713174933</v>
+      </c>
+      <c r="I29">
+        <v>-0.004483215076925657</v>
+      </c>
+      <c r="J29">
+        <v>-0.02750875898919414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1027732935539693</v>
+        <v>0.09658297321170246</v>
       </c>
       <c r="C30">
-        <v>-0.009211750138057945</v>
+        <v>-0.03551641696067958</v>
       </c>
       <c r="D30">
-        <v>-0.02197987438598496</v>
+        <v>0.034034348050634</v>
       </c>
       <c r="E30">
-        <v>0.1148078515119308</v>
+        <v>0.03122131991806371</v>
       </c>
       <c r="F30">
-        <v>-0.0309466971212558</v>
+        <v>-0.1063621731015112</v>
       </c>
       <c r="G30">
-        <v>0.06362407900914228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0098261640289202</v>
+      </c>
+      <c r="H30">
+        <v>-0.0123920577051819</v>
+      </c>
+      <c r="I30">
+        <v>0.0268889207009894</v>
+      </c>
+      <c r="J30">
+        <v>0.001480688485466587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05682032455083949</v>
+        <v>0.05956020542973876</v>
       </c>
       <c r="C31">
-        <v>-0.01336855009929315</v>
+        <v>-0.02056394338831187</v>
       </c>
       <c r="D31">
-        <v>-0.01337312520876702</v>
+        <v>0.01957223541226226</v>
       </c>
       <c r="E31">
-        <v>-0.02050473929044456</v>
+        <v>0.01325628798121249</v>
       </c>
       <c r="F31">
-        <v>-0.005862399320957465</v>
+        <v>-0.003311759923993307</v>
       </c>
       <c r="G31">
-        <v>-0.006561679512127304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03309730375571539</v>
+      </c>
+      <c r="H31">
+        <v>-0.04749838195681414</v>
+      </c>
+      <c r="I31">
+        <v>-0.009328838414885382</v>
+      </c>
+      <c r="J31">
+        <v>-0.02088242443828004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07072797779829999</v>
+        <v>0.04642623762509805</v>
       </c>
       <c r="C32">
-        <v>-0.02730102361791869</v>
+        <v>-0.0466198822612948</v>
       </c>
       <c r="D32">
-        <v>-0.01286716365671555</v>
+        <v>0.02089251785099762</v>
       </c>
       <c r="E32">
-        <v>0.1174570933113154</v>
+        <v>-0.0006426545891463888</v>
       </c>
       <c r="F32">
-        <v>-8.799824806146509e-05</v>
+        <v>-0.1034928396675677</v>
       </c>
       <c r="G32">
-        <v>-0.03082348283937218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.003978607237293967</v>
+      </c>
+      <c r="H32">
+        <v>-0.04530800819275822</v>
+      </c>
+      <c r="I32">
+        <v>-0.02045826585442579</v>
+      </c>
+      <c r="J32">
+        <v>-0.007632011146529701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06796365774519435</v>
+        <v>0.05732970708971208</v>
       </c>
       <c r="C33">
-        <v>-0.03118327178645159</v>
+        <v>-0.04652836730796399</v>
       </c>
       <c r="D33">
-        <v>-0.00805191485546866</v>
+        <v>0.006899739625358964</v>
       </c>
       <c r="E33">
-        <v>0.07228127842502047</v>
+        <v>0.02642648248118618</v>
       </c>
       <c r="F33">
-        <v>-0.04716604951747381</v>
+        <v>-0.08180702973111408</v>
       </c>
       <c r="G33">
-        <v>-0.02784049109237862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01872529726287537</v>
+      </c>
+      <c r="H33">
+        <v>-0.05165198221090827</v>
+      </c>
+      <c r="I33">
+        <v>0.01604578294085333</v>
+      </c>
+      <c r="J33">
+        <v>0.01359371124618183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04680341577367939</v>
+        <v>0.04123953876220852</v>
       </c>
       <c r="C34">
-        <v>-0.01381892038095476</v>
+        <v>-0.02671462780892271</v>
       </c>
       <c r="D34">
-        <v>0.005991261351652488</v>
+        <v>0.009316138544385335</v>
       </c>
       <c r="E34">
-        <v>0.02677888769185222</v>
+        <v>0.009042284554224615</v>
       </c>
       <c r="F34">
-        <v>0.002376330213041528</v>
+        <v>-0.0364846270464487</v>
       </c>
       <c r="G34">
-        <v>-0.002720648287857663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0009682727140787429</v>
+      </c>
+      <c r="H34">
+        <v>-0.02026006834086082</v>
+      </c>
+      <c r="I34">
+        <v>0.01535891504377484</v>
+      </c>
+      <c r="J34">
+        <v>0.001852659969020502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01229163743412146</v>
+        <v>0.01390333184485486</v>
       </c>
       <c r="C36">
-        <v>0.009730546712471295</v>
+        <v>-0.001051089081708802</v>
       </c>
       <c r="D36">
-        <v>-0.006227281037528364</v>
+        <v>0.007292458995691238</v>
       </c>
       <c r="E36">
-        <v>0.0228926317554165</v>
+        <v>0.001283047692426146</v>
       </c>
       <c r="F36">
-        <v>-0.008768456242772074</v>
+        <v>-0.03050596949622068</v>
       </c>
       <c r="G36">
-        <v>-0.01275230172626423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01380255736821244</v>
+      </c>
+      <c r="H36">
+        <v>-0.0334737574000504</v>
+      </c>
+      <c r="I36">
+        <v>-0.0018199461015018</v>
+      </c>
+      <c r="J36">
+        <v>-0.02175742266343274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05757689542788765</v>
+        <v>0.03186346501546295</v>
       </c>
       <c r="C38">
-        <v>-0.005383072949799644</v>
+        <v>-0.01098957099267272</v>
       </c>
       <c r="D38">
-        <v>-0.02418603161009623</v>
+        <v>0.008242922478457567</v>
       </c>
       <c r="E38">
-        <v>0.03315058790289609</v>
+        <v>0.005954933422210273</v>
       </c>
       <c r="F38">
-        <v>-0.01236313781906077</v>
+        <v>-0.05217189879244701</v>
       </c>
       <c r="G38">
-        <v>-0.04351940655105509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02454367111131837</v>
+      </c>
+      <c r="H38">
+        <v>-0.01920321074504679</v>
+      </c>
+      <c r="I38">
+        <v>0.00277369628138552</v>
+      </c>
+      <c r="J38">
+        <v>-0.02777098973272812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07386736540071995</v>
+        <v>0.0568058774651704</v>
       </c>
       <c r="C39">
-        <v>-0.01300081998378928</v>
+        <v>-0.03561370890010841</v>
       </c>
       <c r="D39">
-        <v>-0.001121287653586756</v>
+        <v>0.01659768060376963</v>
       </c>
       <c r="E39">
-        <v>0.04611709561395353</v>
+        <v>0.02222117015294287</v>
       </c>
       <c r="F39">
-        <v>-0.02307058385131726</v>
+        <v>-0.05760770439741547</v>
       </c>
       <c r="G39">
-        <v>0.0066134634774103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.009569284152896398</v>
+      </c>
+      <c r="H39">
+        <v>-0.01667101444208156</v>
+      </c>
+      <c r="I39">
+        <v>0.03427464973278522</v>
+      </c>
+      <c r="J39">
+        <v>0.005431317718450508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.0705957749418636</v>
+        <v>0.05564130745650246</v>
       </c>
       <c r="C40">
-        <v>-0.02745001763959888</v>
+        <v>-0.03497949418897164</v>
       </c>
       <c r="D40">
-        <v>-0.003836836800531002</v>
+        <v>0.02481435800814887</v>
       </c>
       <c r="E40">
-        <v>0.1133235282926671</v>
+        <v>0.04144238543804494</v>
       </c>
       <c r="F40">
-        <v>-0.03880034161989176</v>
+        <v>-0.1048216424675362</v>
       </c>
       <c r="G40">
-        <v>-0.0985676807851225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0002558207154729419</v>
+      </c>
+      <c r="H40">
+        <v>-0.08086626198738406</v>
+      </c>
+      <c r="I40">
+        <v>-0.003955408639705544</v>
+      </c>
+      <c r="J40">
+        <v>0.05594002550239531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003896505871537803</v>
+        <v>0.001373922433133044</v>
       </c>
       <c r="C41">
-        <v>-0.01332879664879235</v>
+        <v>-0.01165552281946697</v>
       </c>
       <c r="D41">
-        <v>-0.01757036074452934</v>
+        <v>0.005399013404947369</v>
       </c>
       <c r="E41">
-        <v>0.01001977717128243</v>
+        <v>2.22952129355812e-05</v>
       </c>
       <c r="F41">
-        <v>-0.02312648756820675</v>
+        <v>-0.01730102660867485</v>
       </c>
       <c r="G41">
-        <v>-0.02600545834448939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02638295512630273</v>
+      </c>
+      <c r="H41">
+        <v>-0.04025215413897763</v>
+      </c>
+      <c r="I41">
+        <v>-0.02177775653319792</v>
+      </c>
+      <c r="J41">
+        <v>-0.006629129864663919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1291729059807886</v>
+        <v>0.233213989074654</v>
       </c>
       <c r="C42">
-        <v>-0.1697640508095421</v>
+        <v>-0.1416485368721056</v>
       </c>
       <c r="D42">
-        <v>0.9370540277997025</v>
+        <v>-0.9003903042078266</v>
       </c>
       <c r="E42">
-        <v>-0.01195732013358438</v>
+        <v>0.2090546398551283</v>
       </c>
       <c r="F42">
-        <v>0.009766177171456031</v>
+        <v>0.1992469149061071</v>
       </c>
       <c r="G42">
-        <v>0.1322666700360149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003356173591801066</v>
+      </c>
+      <c r="H42">
+        <v>0.001683570733057518</v>
+      </c>
+      <c r="I42">
+        <v>-0.05041347665531196</v>
+      </c>
+      <c r="J42">
+        <v>0.003216124894839594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008090747845187011</v>
+        <v>0.003648159192343784</v>
       </c>
       <c r="C43">
-        <v>-0.01479447264974876</v>
+        <v>-0.01390619670740459</v>
       </c>
       <c r="D43">
-        <v>-0.01683696158010873</v>
+        <v>0.006541266939368906</v>
       </c>
       <c r="E43">
-        <v>0.03188566804199277</v>
+        <v>0.005001967961538184</v>
       </c>
       <c r="F43">
-        <v>-0.0001080984666049344</v>
+        <v>-0.02988416142756595</v>
       </c>
       <c r="G43">
-        <v>-0.01887251602388861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00917108129022177</v>
+      </c>
+      <c r="H43">
+        <v>-0.03806976396174817</v>
+      </c>
+      <c r="I43">
+        <v>-0.01343741955794497</v>
+      </c>
+      <c r="J43">
+        <v>0.00113986316081764</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03782179490633253</v>
+        <v>0.0254605162669913</v>
       </c>
       <c r="C44">
-        <v>-0.03694083540536694</v>
+        <v>-0.03177056989413898</v>
       </c>
       <c r="D44">
-        <v>-0.00924888183920502</v>
+        <v>0.002534124323618896</v>
       </c>
       <c r="E44">
-        <v>0.1113244830643248</v>
+        <v>0.02163441711235525</v>
       </c>
       <c r="F44">
-        <v>-0.07846174223184577</v>
+        <v>-0.1224085370355482</v>
       </c>
       <c r="G44">
-        <v>-0.1296731973465796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03119421326269531</v>
+      </c>
+      <c r="H44">
+        <v>-0.1207238892627232</v>
+      </c>
+      <c r="I44">
+        <v>-0.0230653938114843</v>
+      </c>
+      <c r="J44">
+        <v>0.01167808534203171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02217751960523108</v>
+        <v>0.02130668902827351</v>
       </c>
       <c r="C46">
-        <v>-0.01401601681499455</v>
+        <v>-0.02558311872446532</v>
       </c>
       <c r="D46">
-        <v>-0.02241195410698744</v>
+        <v>0.01879351895368899</v>
       </c>
       <c r="E46">
-        <v>0.0206533708277275</v>
+        <v>0.005006203901124098</v>
       </c>
       <c r="F46">
-        <v>-0.02052744305071945</v>
+        <v>-0.04771810437701451</v>
       </c>
       <c r="G46">
-        <v>-0.03858146871279765</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01435650375419111</v>
+      </c>
+      <c r="H46">
+        <v>-0.06213684011947013</v>
+      </c>
+      <c r="I46">
+        <v>-0.01201138410716864</v>
+      </c>
+      <c r="J46">
+        <v>-0.00326782166817778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08208104461889167</v>
+        <v>0.0895621264100174</v>
       </c>
       <c r="C47">
-        <v>-0.01011763279110701</v>
+        <v>-0.02003770205106258</v>
       </c>
       <c r="D47">
-        <v>-0.01743488190478553</v>
+        <v>0.02409498622160194</v>
       </c>
       <c r="E47">
-        <v>-0.02413296040881881</v>
+        <v>-0.002193157111349577</v>
       </c>
       <c r="F47">
-        <v>-0.0001153739205491539</v>
+        <v>0.002678215371489756</v>
       </c>
       <c r="G47">
-        <v>-0.02608072064885879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02969693406364101</v>
+      </c>
+      <c r="H47">
+        <v>-0.06345983067021106</v>
+      </c>
+      <c r="I47">
+        <v>-0.01709945588265034</v>
+      </c>
+      <c r="J47">
+        <v>-0.00818314543581815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01491638582114981</v>
+        <v>0.01603230226942806</v>
       </c>
       <c r="C48">
-        <v>-0.01666255601925464</v>
+        <v>-0.01916705787366066</v>
       </c>
       <c r="D48">
-        <v>-0.01550203457378703</v>
+        <v>0.008415970905117689</v>
       </c>
       <c r="E48">
-        <v>0.03397954183295756</v>
+        <v>-0.0008340855518692378</v>
       </c>
       <c r="F48">
-        <v>-0.01603486265412505</v>
+        <v>-0.03696580721026633</v>
       </c>
       <c r="G48">
-        <v>-0.01154657239506546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.007361428977527878</v>
+      </c>
+      <c r="H48">
+        <v>-0.02460958899851897</v>
+      </c>
+      <c r="I48">
+        <v>-0.01135199382763128</v>
+      </c>
+      <c r="J48">
+        <v>-0.003801014431485249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08306375652930569</v>
+        <v>0.08499484677203609</v>
       </c>
       <c r="C50">
-        <v>-0.02706189919035425</v>
+        <v>-0.03465198457077374</v>
       </c>
       <c r="D50">
-        <v>-0.02419705337568213</v>
+        <v>0.01808268558145915</v>
       </c>
       <c r="E50">
-        <v>-0.02502372659186906</v>
+        <v>-0.004760715360618652</v>
       </c>
       <c r="F50">
-        <v>0.001224702904053683</v>
+        <v>-0.003093521376746185</v>
       </c>
       <c r="G50">
-        <v>-0.009522122007651483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0002057696392837465</v>
+      </c>
+      <c r="H50">
+        <v>-0.0490277482288189</v>
+      </c>
+      <c r="I50">
+        <v>0.002281154634297069</v>
+      </c>
+      <c r="J50">
+        <v>-0.04923816902192516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07044128668699171</v>
+        <v>0.04724213068087409</v>
       </c>
       <c r="C51">
-        <v>0.02187156970469872</v>
+        <v>0.004456145736020885</v>
       </c>
       <c r="D51">
-        <v>0.002687946550514589</v>
+        <v>0.01223956053929488</v>
       </c>
       <c r="E51">
-        <v>0.07396014321271667</v>
+        <v>0.04032999339454051</v>
       </c>
       <c r="F51">
-        <v>-0.05267148689972193</v>
+        <v>-0.0880916967425312</v>
       </c>
       <c r="G51">
-        <v>-0.01837852412791689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04358560516291487</v>
+      </c>
+      <c r="H51">
+        <v>-0.06589133529180673</v>
+      </c>
+      <c r="I51">
+        <v>-0.03144446808035414</v>
+      </c>
+      <c r="J51">
+        <v>-0.009959824289114478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1452044493229688</v>
+        <v>0.127923266732816</v>
       </c>
       <c r="C53">
-        <v>-0.01428194558722963</v>
+        <v>-0.03859671479088734</v>
       </c>
       <c r="D53">
-        <v>-0.04230478217095816</v>
+        <v>0.04597448496582084</v>
       </c>
       <c r="E53">
-        <v>-0.04115951756424069</v>
+        <v>-0.01376643194334029</v>
       </c>
       <c r="F53">
-        <v>0.01586755710173061</v>
+        <v>0.0307672639825961</v>
       </c>
       <c r="G53">
-        <v>0.009245347531052809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02123593844482643</v>
+      </c>
+      <c r="H53">
+        <v>-0.002919461988309773</v>
+      </c>
+      <c r="I53">
+        <v>-0.03048200001656272</v>
+      </c>
+      <c r="J53">
+        <v>0.02970985932551756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02495444020223704</v>
+        <v>0.02076296121779733</v>
       </c>
       <c r="C54">
-        <v>0.003909608770049763</v>
+        <v>-0.007059104041417015</v>
       </c>
       <c r="D54">
-        <v>-0.02762194005268474</v>
+        <v>0.02347189759421166</v>
       </c>
       <c r="E54">
-        <v>0.02866616231058881</v>
+        <v>-0.006854767088766584</v>
       </c>
       <c r="F54">
-        <v>-0.04051032509361911</v>
+        <v>-0.04531384151987055</v>
       </c>
       <c r="G54">
-        <v>-0.05358672781506034</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03298274628828724</v>
+      </c>
+      <c r="H54">
+        <v>-0.05523750158406842</v>
+      </c>
+      <c r="I54">
+        <v>-0.03149459905285784</v>
+      </c>
+      <c r="J54">
+        <v>-0.02965753136108191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09709721773428448</v>
+        <v>0.101378280842929</v>
       </c>
       <c r="C55">
-        <v>0.0008805795226876532</v>
+        <v>-0.02126524801470359</v>
       </c>
       <c r="D55">
-        <v>-0.03803726696545669</v>
+        <v>0.02816175645267936</v>
       </c>
       <c r="E55">
-        <v>-0.005371886276332221</v>
+        <v>-0.03653811454370651</v>
       </c>
       <c r="F55">
-        <v>0.03040937769360806</v>
+        <v>0.013552962575121</v>
       </c>
       <c r="G55">
-        <v>0.009702149371844455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01251208439167288</v>
+      </c>
+      <c r="H55">
+        <v>-0.01767582594187716</v>
+      </c>
+      <c r="I55">
+        <v>-0.009357151137193343</v>
+      </c>
+      <c r="J55">
+        <v>0.01925519618311491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1788607108429865</v>
+        <v>0.1684642473205267</v>
       </c>
       <c r="C56">
-        <v>0.01438000433279653</v>
+        <v>-0.01847879784481</v>
       </c>
       <c r="D56">
-        <v>-0.07458318726178162</v>
+        <v>0.08164056053134647</v>
       </c>
       <c r="E56">
-        <v>-0.07235884927646136</v>
+        <v>-0.0456763203512268</v>
       </c>
       <c r="F56">
-        <v>0.0696826477593024</v>
+        <v>0.06466628004002241</v>
       </c>
       <c r="G56">
-        <v>0.025632741985942</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02069834728892391</v>
+      </c>
+      <c r="H56">
+        <v>0.03886250126451073</v>
+      </c>
+      <c r="I56">
+        <v>-0.0002974429808291102</v>
+      </c>
+      <c r="J56">
+        <v>0.0566464558788827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08832374103403889</v>
+        <v>0.06899798865541522</v>
       </c>
       <c r="C57">
-        <v>-0.02500824546903632</v>
+        <v>-0.02866322552004637</v>
       </c>
       <c r="D57">
-        <v>-0.0216671441765646</v>
+        <v>0.01475409669906629</v>
       </c>
       <c r="E57">
-        <v>0.06180541927060403</v>
+        <v>0.02409409595309806</v>
       </c>
       <c r="F57">
-        <v>-0.01997033639043804</v>
+        <v>-0.06646600430812941</v>
       </c>
       <c r="G57">
-        <v>-0.04811609942030082</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.006233526020428988</v>
+      </c>
+      <c r="H57">
+        <v>-0.04279892231908847</v>
+      </c>
+      <c r="I57">
+        <v>0.01258086074042504</v>
+      </c>
+      <c r="J57">
+        <v>0.03888661711008772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1642568677127852</v>
+        <v>0.1963612662974258</v>
       </c>
       <c r="C58">
-        <v>-0.0006322371587415389</v>
+        <v>-0.04813741764378417</v>
       </c>
       <c r="D58">
-        <v>0.04390140682277612</v>
+        <v>-0.011850238311174</v>
       </c>
       <c r="E58">
-        <v>0.1420174658237145</v>
+        <v>0.06576128821763073</v>
       </c>
       <c r="F58">
-        <v>0.07018798089881324</v>
+        <v>-0.1842631805006094</v>
       </c>
       <c r="G58">
-        <v>-0.2669470916477693</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1797629831647082</v>
+      </c>
+      <c r="H58">
+        <v>-0.3152157314670876</v>
+      </c>
+      <c r="I58">
+        <v>-0.02114961482440892</v>
+      </c>
+      <c r="J58">
+        <v>-0.6824876206452172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.005012070068949809</v>
+        <v>0.03275873936334335</v>
       </c>
       <c r="C59">
-        <v>0.2045826918162186</v>
+        <v>0.1982696668291372</v>
       </c>
       <c r="D59">
-        <v>-0.0169266208763916</v>
+        <v>0.01731677180144742</v>
       </c>
       <c r="E59">
-        <v>0.04691298052060255</v>
+        <v>0.0403675244559117</v>
       </c>
       <c r="F59">
-        <v>-0.01367296021616587</v>
+        <v>-0.05184402166609136</v>
       </c>
       <c r="G59">
-        <v>0.01314243825323496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005449501894823602</v>
+      </c>
+      <c r="H59">
+        <v>0.01970288177861519</v>
+      </c>
+      <c r="I59">
+        <v>-0.07435639300945415</v>
+      </c>
+      <c r="J59">
+        <v>-0.03080344228357305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1875476016175703</v>
+        <v>0.1833803071336182</v>
       </c>
       <c r="C60">
-        <v>0.1148399640949502</v>
+        <v>0.05551323088991114</v>
       </c>
       <c r="D60">
-        <v>-0.03668693687511843</v>
+        <v>0.03394768526747304</v>
       </c>
       <c r="E60">
-        <v>0.169076588536237</v>
+        <v>0.1205951499335917</v>
       </c>
       <c r="F60">
-        <v>-0.06227274403724205</v>
+        <v>-0.1806567743295836</v>
       </c>
       <c r="G60">
-        <v>0.1723627687446574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05043457824378125</v>
+      </c>
+      <c r="H60">
+        <v>0.2491764432917556</v>
+      </c>
+      <c r="I60">
+        <v>0.1050899223677125</v>
+      </c>
+      <c r="J60">
+        <v>-0.01487821268516137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04582758656791003</v>
+        <v>0.03689336826874536</v>
       </c>
       <c r="C61">
-        <v>0.002052967879349681</v>
+        <v>-0.01669331843044455</v>
       </c>
       <c r="D61">
-        <v>0.008560406065785941</v>
+        <v>0.003462428988188118</v>
       </c>
       <c r="E61">
-        <v>0.04942461375668238</v>
+        <v>0.01750393115120903</v>
       </c>
       <c r="F61">
-        <v>-0.02567755454324735</v>
+        <v>-0.04522376032139266</v>
       </c>
       <c r="G61">
-        <v>0.007645049148130596</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008832920389330671</v>
+      </c>
+      <c r="H61">
+        <v>-0.006906177129465187</v>
+      </c>
+      <c r="I61">
+        <v>0.03714107725613094</v>
+      </c>
+      <c r="J61">
+        <v>-0.01593796571869145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04405507063846191</v>
+        <v>0.02950374107332105</v>
       </c>
       <c r="C63">
-        <v>0.006454610646763594</v>
+        <v>-0.01548314498816167</v>
       </c>
       <c r="D63">
-        <v>-0.01485408355329892</v>
+        <v>0.01327322237423624</v>
       </c>
       <c r="E63">
-        <v>0.03802474137311634</v>
+        <v>0.009033482531985168</v>
       </c>
       <c r="F63">
-        <v>-0.006589214771295272</v>
+        <v>-0.03119152959279912</v>
       </c>
       <c r="G63">
-        <v>-0.01595655090332417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004364811651671709</v>
+      </c>
+      <c r="H63">
+        <v>-0.04505289410953323</v>
+      </c>
+      <c r="I63">
+        <v>-0.02683007545036877</v>
+      </c>
+      <c r="J63">
+        <v>0.02099024843230271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08779214576526947</v>
+        <v>0.06268641760024397</v>
       </c>
       <c r="C64">
-        <v>-0.03499908335632838</v>
+        <v>-0.0426339771469887</v>
       </c>
       <c r="D64">
-        <v>-0.05531751859435811</v>
+        <v>0.03319234163991391</v>
       </c>
       <c r="E64">
-        <v>0.0539624272498504</v>
+        <v>-0.02402853772607489</v>
       </c>
       <c r="F64">
-        <v>-0.09288869750397644</v>
+        <v>-0.07164511304111996</v>
       </c>
       <c r="G64">
-        <v>0.05893454091735076</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06266084218674092</v>
+      </c>
+      <c r="H64">
+        <v>0.01164179096889138</v>
+      </c>
+      <c r="I64">
+        <v>-0.02170699011447534</v>
+      </c>
+      <c r="J64">
+        <v>0.07977347572208364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01769704588063693</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.00416980062460843</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.001115074674305807</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004828932898167106</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001598340007304598</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01984078098842264</v>
+      </c>
+      <c r="H65">
+        <v>0.003669852916324107</v>
+      </c>
+      <c r="I65">
+        <v>0.008042842314479553</v>
+      </c>
+      <c r="J65">
+        <v>-0.0008670395583065436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09501809348715019</v>
+        <v>0.06871699373224169</v>
       </c>
       <c r="C66">
-        <v>-0.01985251900991373</v>
+        <v>-0.0484654736164353</v>
       </c>
       <c r="D66">
-        <v>-0.03844816711837665</v>
+        <v>0.04387286245095735</v>
       </c>
       <c r="E66">
-        <v>0.0775997538602828</v>
+        <v>0.0281027474730042</v>
       </c>
       <c r="F66">
-        <v>-0.04314759496939218</v>
+        <v>-0.07437474452941585</v>
       </c>
       <c r="G66">
-        <v>0.01044879629557247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01064707620556035</v>
+      </c>
+      <c r="H66">
+        <v>-0.00868520035781027</v>
+      </c>
+      <c r="I66">
+        <v>0.04906973991324839</v>
+      </c>
+      <c r="J66">
+        <v>0.03323958932416272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06567772686942201</v>
+        <v>0.0427164468545422</v>
       </c>
       <c r="C67">
-        <v>0.01846130221982674</v>
+        <v>0.005660735879965358</v>
       </c>
       <c r="D67">
-        <v>-0.01172203441321873</v>
+        <v>0.008102143118607448</v>
       </c>
       <c r="E67">
-        <v>0.02649735644345822</v>
+        <v>0.01267541071655803</v>
       </c>
       <c r="F67">
-        <v>-0.01052677465331221</v>
+        <v>-0.03826585993420923</v>
       </c>
       <c r="G67">
-        <v>-0.03660985797695056</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03225063347441275</v>
+      </c>
+      <c r="H67">
+        <v>-0.001485200232198877</v>
+      </c>
+      <c r="I67">
+        <v>0.03637988270621072</v>
+      </c>
+      <c r="J67">
+        <v>-0.01027563970647689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.004043851041575049</v>
+        <v>0.04066378198441921</v>
       </c>
       <c r="C68">
-        <v>0.244033668691097</v>
+        <v>0.2325006834247448</v>
       </c>
       <c r="D68">
-        <v>-0.004813189083683477</v>
+        <v>0.01134548717412072</v>
       </c>
       <c r="E68">
-        <v>0.02986297352168659</v>
+        <v>0.03668469333841118</v>
       </c>
       <c r="F68">
-        <v>-0.0004821557878129027</v>
+        <v>-0.03516851314459987</v>
       </c>
       <c r="G68">
-        <v>0.005055999389738094</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004987784288419227</v>
+      </c>
+      <c r="H68">
+        <v>0.02168855780023248</v>
+      </c>
+      <c r="I68">
+        <v>-0.17512548561707</v>
+      </c>
+      <c r="J68">
+        <v>-0.03022707714019651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06861131538899488</v>
+        <v>0.07092911948963733</v>
       </c>
       <c r="C69">
-        <v>-0.009861690530568618</v>
+        <v>-0.01905597118866167</v>
       </c>
       <c r="D69">
-        <v>-0.02104159453498692</v>
+        <v>0.0311191429476078</v>
       </c>
       <c r="E69">
-        <v>-0.01062859541470657</v>
+        <v>0.007295356203109209</v>
       </c>
       <c r="F69">
-        <v>0.002087881438613798</v>
+        <v>-0.003718309474077658</v>
       </c>
       <c r="G69">
-        <v>-0.01398666885343397</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02105198528091794</v>
+      </c>
+      <c r="H69">
+        <v>-0.04466734122637184</v>
+      </c>
+      <c r="I69">
+        <v>0.004356436525276897</v>
+      </c>
+      <c r="J69">
+        <v>-0.00436678120574875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006514317572070335</v>
+        <v>0.04382182571074829</v>
       </c>
       <c r="C71">
-        <v>0.2653764428928718</v>
+        <v>0.2507224465031601</v>
       </c>
       <c r="D71">
-        <v>-0.006618363035103682</v>
+        <v>-0.007508338481514146</v>
       </c>
       <c r="E71">
-        <v>0.06086910056488722</v>
+        <v>0.06188068089244059</v>
       </c>
       <c r="F71">
-        <v>-0.02002360948853568</v>
+        <v>-0.05094800224204692</v>
       </c>
       <c r="G71">
-        <v>0.07957771150636288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01854318894161921</v>
+      </c>
+      <c r="H71">
+        <v>0.03453005329514642</v>
+      </c>
+      <c r="I71">
+        <v>-0.1472003372635477</v>
+      </c>
+      <c r="J71">
+        <v>-0.03363124204913961</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1179870495112215</v>
+        <v>0.1203258811246644</v>
       </c>
       <c r="C72">
-        <v>0.01251786942516486</v>
+        <v>-0.009739880456544977</v>
       </c>
       <c r="D72">
-        <v>-0.04871866617403949</v>
+        <v>0.05439093738412241</v>
       </c>
       <c r="E72">
-        <v>0.09225149822533468</v>
+        <v>0.01310155148856703</v>
       </c>
       <c r="F72">
-        <v>-0.01024527073409958</v>
+        <v>-0.08618442210779555</v>
       </c>
       <c r="G72">
-        <v>-0.05687447558407344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04612937694144812</v>
+      </c>
+      <c r="H72">
+        <v>0.002696905635023028</v>
+      </c>
+      <c r="I72">
+        <v>0.02648765566700967</v>
+      </c>
+      <c r="J72">
+        <v>-0.132976530969921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.280041938878383</v>
+        <v>0.2692036562593444</v>
       </c>
       <c r="C73">
-        <v>0.1931599526338042</v>
+        <v>0.1084788912535963</v>
       </c>
       <c r="D73">
-        <v>0.0078205868410003</v>
+        <v>0.005710961595889775</v>
       </c>
       <c r="E73">
-        <v>0.3077995370481807</v>
+        <v>0.2106650469722973</v>
       </c>
       <c r="F73">
-        <v>-0.08898896184245181</v>
+        <v>-0.2713950516805166</v>
       </c>
       <c r="G73">
-        <v>0.3824495040826705</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.109877360799577</v>
+      </c>
+      <c r="H73">
+        <v>0.4469758612588078</v>
+      </c>
+      <c r="I73">
+        <v>0.3423305823943151</v>
+      </c>
+      <c r="J73">
+        <v>-0.05262370349322366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.158756027519061</v>
+        <v>0.1525635136571657</v>
       </c>
       <c r="C74">
-        <v>0.003908460421400212</v>
+        <v>-0.02361059588017148</v>
       </c>
       <c r="D74">
-        <v>-0.04514251134797397</v>
+        <v>0.04693026496163617</v>
       </c>
       <c r="E74">
-        <v>-0.008360306478381162</v>
+        <v>-0.0165971752767681</v>
       </c>
       <c r="F74">
-        <v>0.05211658117187427</v>
+        <v>0.03939137381279509</v>
       </c>
       <c r="G74">
-        <v>0.04202942155740906</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01421720467367293</v>
+      </c>
+      <c r="H74">
+        <v>0.02349506043264927</v>
+      </c>
+      <c r="I74">
+        <v>0.01093786445742658</v>
+      </c>
+      <c r="J74">
+        <v>0.08374497611012222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2386324049381876</v>
+        <v>0.2441303097361352</v>
       </c>
       <c r="C75">
-        <v>0.007237472535717398</v>
+        <v>-0.02804820666877782</v>
       </c>
       <c r="D75">
-        <v>-0.05479026036926544</v>
+        <v>0.09928262344667133</v>
       </c>
       <c r="E75">
-        <v>-0.1208242193002234</v>
+        <v>-0.03813058363764651</v>
       </c>
       <c r="F75">
-        <v>0.06512689874904502</v>
+        <v>0.1261487528600401</v>
       </c>
       <c r="G75">
-        <v>0.02976795409271361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006932690862873683</v>
+      </c>
+      <c r="H75">
+        <v>0.01725065751003398</v>
+      </c>
+      <c r="I75">
+        <v>-0.06620486900335798</v>
+      </c>
+      <c r="J75">
+        <v>0.09383979555158525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2455003760889925</v>
+        <v>0.2679754673007574</v>
       </c>
       <c r="C76">
-        <v>0.010808246912924</v>
+        <v>-0.02283277762137246</v>
       </c>
       <c r="D76">
-        <v>-0.09395791171829787</v>
+        <v>0.1239245035272131</v>
       </c>
       <c r="E76">
-        <v>-0.1138135987451962</v>
+        <v>-0.08174834849573177</v>
       </c>
       <c r="F76">
-        <v>0.08479787109251256</v>
+        <v>0.1480966323015498</v>
       </c>
       <c r="G76">
-        <v>0.04792944814388054</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04448633948300726</v>
+      </c>
+      <c r="H76">
+        <v>0.03519804642212566</v>
+      </c>
+      <c r="I76">
+        <v>0.02249071427193282</v>
+      </c>
+      <c r="J76">
+        <v>0.1119588860648728</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1223438491937971</v>
+        <v>0.1302878726816915</v>
       </c>
       <c r="C77">
-        <v>-0.0186482768975911</v>
+        <v>-0.05613842521593836</v>
       </c>
       <c r="D77">
-        <v>0.04717488106305243</v>
+        <v>-0.04365279108857702</v>
       </c>
       <c r="E77">
-        <v>0.1695685391841115</v>
+        <v>0.03875982407686352</v>
       </c>
       <c r="F77">
-        <v>-0.02182459092640001</v>
+        <v>-0.1715672703529706</v>
       </c>
       <c r="G77">
-        <v>-0.160284603638655</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02740468488731307</v>
+      </c>
+      <c r="H77">
+        <v>-0.1997244254363123</v>
+      </c>
+      <c r="I77">
+        <v>-0.1644175925666148</v>
+      </c>
+      <c r="J77">
+        <v>0.130555356499712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09037661548828803</v>
+        <v>0.08679251077357096</v>
       </c>
       <c r="C78">
-        <v>-0.03272707375291877</v>
+        <v>-0.05886476942505405</v>
       </c>
       <c r="D78">
-        <v>0.01546358434449028</v>
+        <v>-0.002472527633186867</v>
       </c>
       <c r="E78">
-        <v>0.06883065481639182</v>
+        <v>0.004917616092483422</v>
       </c>
       <c r="F78">
-        <v>-0.02028447429334432</v>
+        <v>-0.09147138937461603</v>
       </c>
       <c r="G78">
-        <v>-0.001787718352578173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.002390841180521718</v>
+      </c>
+      <c r="H78">
+        <v>-0.02842878200054938</v>
+      </c>
+      <c r="I78">
+        <v>-0.0348900136007266</v>
+      </c>
+      <c r="J78">
+        <v>0.01765564625384517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.05987102099476261</v>
+        <v>0.1099817473844627</v>
       </c>
       <c r="C80">
-        <v>-0.0008615094039714867</v>
+        <v>0.131999961929878</v>
       </c>
       <c r="D80">
-        <v>0.01677112855534139</v>
+        <v>-0.2685461904638818</v>
       </c>
       <c r="E80">
-        <v>0.03283519797216811</v>
+        <v>-0.8900871879036121</v>
       </c>
       <c r="F80">
-        <v>0.0451780313806214</v>
+        <v>-0.2636322197624812</v>
       </c>
       <c r="G80">
-        <v>-0.4226619066866442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02089735566844616</v>
+      </c>
+      <c r="H80">
+        <v>0.1166211947241714</v>
+      </c>
+      <c r="I80">
+        <v>0.05356484363237855</v>
+      </c>
+      <c r="J80">
+        <v>-0.06485225764684976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1670280468628129</v>
+        <v>0.1796619417441588</v>
       </c>
       <c r="C81">
-        <v>0.005094458062715805</v>
+        <v>-0.01199209546952722</v>
       </c>
       <c r="D81">
-        <v>-0.04313566704787294</v>
+        <v>0.08331078101994074</v>
       </c>
       <c r="E81">
-        <v>-0.127225805965186</v>
+        <v>-0.04735930448666727</v>
       </c>
       <c r="F81">
-        <v>0.09979298120368837</v>
+        <v>0.1395804181464646</v>
       </c>
       <c r="G81">
-        <v>0.0410019247475374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0232152995247034</v>
+      </c>
+      <c r="H81">
+        <v>0.01679454822116062</v>
+      </c>
+      <c r="I81">
+        <v>-0.03003013799442958</v>
+      </c>
+      <c r="J81">
+        <v>0.04747397046652642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08443646502425134</v>
+        <v>0.06445194899291687</v>
       </c>
       <c r="C83">
-        <v>-0.0418373561723479</v>
+        <v>-0.0422531256940615</v>
       </c>
       <c r="D83">
-        <v>0.09195990911123755</v>
+        <v>-0.03938005481158942</v>
       </c>
       <c r="E83">
-        <v>0.0371861773234076</v>
+        <v>0.03795845927750679</v>
       </c>
       <c r="F83">
-        <v>-0.05920687273366023</v>
+        <v>-0.04876787613966508</v>
       </c>
       <c r="G83">
-        <v>-0.01095051245766294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04553891391902658</v>
+      </c>
+      <c r="H83">
+        <v>-0.03495192162289439</v>
+      </c>
+      <c r="I83">
+        <v>-0.0182296809286339</v>
+      </c>
+      <c r="J83">
+        <v>0.07986001200908323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2369980428710191</v>
+        <v>0.2555676129335634</v>
       </c>
       <c r="C85">
-        <v>-0.05783532440184787</v>
+        <v>-0.06084572278967319</v>
       </c>
       <c r="D85">
-        <v>-0.04946274090628133</v>
+        <v>0.08240398557721851</v>
       </c>
       <c r="E85">
-        <v>-0.1399420012179282</v>
+        <v>-0.08017564998770853</v>
       </c>
       <c r="F85">
-        <v>0.06791045965359727</v>
+        <v>0.145759093174078</v>
       </c>
       <c r="G85">
-        <v>0.0006393846823498651</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.007613629005621867</v>
+      </c>
+      <c r="H85">
+        <v>-0.0150500174943094</v>
+      </c>
+      <c r="I85">
+        <v>-0.03780530638327941</v>
+      </c>
+      <c r="J85">
+        <v>0.1141535253223557</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04803695038504908</v>
+        <v>0.02980789188500984</v>
       </c>
       <c r="C86">
-        <v>-0.04122584560955961</v>
+        <v>-0.0469619738246824</v>
       </c>
       <c r="D86">
-        <v>-0.008276921315981466</v>
+        <v>0.004912655680750703</v>
       </c>
       <c r="E86">
-        <v>0.05093861769669124</v>
+        <v>-0.0002327100961353463</v>
       </c>
       <c r="F86">
-        <v>-0.002490360430718019</v>
+        <v>-0.06701931135144046</v>
       </c>
       <c r="G86">
-        <v>-0.03414872624374779</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.003565971132003025</v>
+      </c>
+      <c r="H86">
+        <v>-0.0558684761306245</v>
+      </c>
+      <c r="I86">
+        <v>-0.05059846225335364</v>
+      </c>
+      <c r="J86">
+        <v>0.02437133864872103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02472825376981084</v>
+        <v>0.03521032909803092</v>
       </c>
       <c r="C87">
-        <v>0.05380167921260222</v>
+        <v>0.0223699911418803</v>
       </c>
       <c r="D87">
-        <v>-0.02243583979920371</v>
+        <v>0.007026217324778279</v>
       </c>
       <c r="E87">
-        <v>0.05837518121354882</v>
+        <v>0.03072443576610557</v>
       </c>
       <c r="F87">
-        <v>-0.0600962655726808</v>
+        <v>-0.09152218500342781</v>
       </c>
       <c r="G87">
-        <v>0.1141387543225927</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0257175194073196</v>
+      </c>
+      <c r="H87">
+        <v>0.006803607109949172</v>
+      </c>
+      <c r="I87">
+        <v>0.008389534495838272</v>
+      </c>
+      <c r="J87">
+        <v>-0.0597158442062394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03805087776086465</v>
+        <v>0.02679807976577011</v>
       </c>
       <c r="C88">
-        <v>-0.02768490153992277</v>
+        <v>-0.01858578502185998</v>
       </c>
       <c r="D88">
-        <v>-0.006129923709937534</v>
+        <v>0.01179741179827642</v>
       </c>
       <c r="E88">
-        <v>-0.001614509430650015</v>
+        <v>-0.02305197726926118</v>
       </c>
       <c r="F88">
-        <v>0.01008711998258996</v>
+        <v>-0.003448561998531948</v>
       </c>
       <c r="G88">
-        <v>-0.0499677143163272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02679140683989603</v>
+      </c>
+      <c r="H88">
+        <v>-0.04552574192774293</v>
+      </c>
+      <c r="I88">
+        <v>0.02570133778904055</v>
+      </c>
+      <c r="J88">
+        <v>-0.004675562568756225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.006747985855361817</v>
+        <v>0.06181748232825851</v>
       </c>
       <c r="C89">
-        <v>0.4235609383498486</v>
+        <v>0.392406581515494</v>
       </c>
       <c r="D89">
-        <v>0.09172966957374183</v>
+        <v>-0.02849744276731256</v>
       </c>
       <c r="E89">
-        <v>-0.02175796178014668</v>
+        <v>0.08193046938622384</v>
       </c>
       <c r="F89">
-        <v>-0.007341885795386419</v>
+        <v>-0.003822623175431192</v>
       </c>
       <c r="G89">
-        <v>-0.03217947822243109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.05500658979187006</v>
+      </c>
+      <c r="H89">
+        <v>-0.02255571439858097</v>
+      </c>
+      <c r="I89">
+        <v>-0.2848437250914418</v>
+      </c>
+      <c r="J89">
+        <v>0.01385209710933085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.002032876156761221</v>
+        <v>0.04238415119434123</v>
       </c>
       <c r="C90">
-        <v>0.3059993656248568</v>
+        <v>0.3315384191833132</v>
       </c>
       <c r="D90">
-        <v>0.01765652295943844</v>
+        <v>-0.01475883611603398</v>
       </c>
       <c r="E90">
-        <v>0.02939236172149417</v>
+        <v>0.03292992205690624</v>
       </c>
       <c r="F90">
-        <v>-0.01177196946667266</v>
+        <v>-0.028521373452512</v>
       </c>
       <c r="G90">
-        <v>0.06475124850934054</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02238972724394698</v>
+      </c>
+      <c r="H90">
+        <v>0.02472283347882909</v>
+      </c>
+      <c r="I90">
+        <v>-0.2165617538788292</v>
+      </c>
+      <c r="J90">
+        <v>-0.02273484074373359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3062690687034262</v>
+        <v>0.3177475410993948</v>
       </c>
       <c r="C91">
-        <v>-0.02878221621656259</v>
+        <v>-0.04973866073902665</v>
       </c>
       <c r="D91">
-        <v>-0.04561594826291919</v>
+        <v>0.09613660204329008</v>
       </c>
       <c r="E91">
-        <v>-0.2648820104448251</v>
+        <v>-0.09036102538133928</v>
       </c>
       <c r="F91">
-        <v>0.1726285214511188</v>
+        <v>0.2721404567882864</v>
       </c>
       <c r="G91">
-        <v>-0.04301556947668646</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04098493396281329</v>
+      </c>
+      <c r="H91">
+        <v>0.02725375698851122</v>
+      </c>
+      <c r="I91">
+        <v>-0.08241738745105413</v>
+      </c>
+      <c r="J91">
+        <v>0.2132166369627029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.01681082306243654</v>
+        <v>0.08545887136178779</v>
       </c>
       <c r="C92">
-        <v>0.4406722120906192</v>
+        <v>0.4572834153181266</v>
       </c>
       <c r="D92">
-        <v>0.2059334237509904</v>
+        <v>-0.05188956603410181</v>
       </c>
       <c r="E92">
-        <v>-0.1081060090311304</v>
+        <v>0.006135398530538244</v>
       </c>
       <c r="F92">
-        <v>0.09926189566079718</v>
+        <v>0.1537755686097397</v>
       </c>
       <c r="G92">
-        <v>-0.4469296936621366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03146786492356778</v>
+      </c>
+      <c r="H92">
+        <v>-0.5166342418914691</v>
+      </c>
+      <c r="I92">
+        <v>0.665836219193316</v>
+      </c>
+      <c r="J92">
+        <v>0.1497288341402068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01659767176391944</v>
+        <v>0.04376546551039584</v>
       </c>
       <c r="C93">
-        <v>0.3703270156059816</v>
+        <v>0.4041324683577513</v>
       </c>
       <c r="D93">
-        <v>0.06273169980032969</v>
+        <v>-0.03612099107681063</v>
       </c>
       <c r="E93">
-        <v>-0.04586381579112961</v>
+        <v>0.05725224854466424</v>
       </c>
       <c r="F93">
-        <v>0.01877359734609701</v>
+        <v>0.03591395818497761</v>
       </c>
       <c r="G93">
-        <v>-0.02008714442656917</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03970120492828591</v>
+      </c>
+      <c r="H93">
+        <v>0.0331168844736035</v>
+      </c>
+      <c r="I93">
+        <v>-0.1997541274279899</v>
+      </c>
+      <c r="J93">
+        <v>0.001459038140762735</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3002179583497632</v>
+        <v>0.3229821344815382</v>
       </c>
       <c r="C94">
-        <v>0.0303935495776352</v>
+        <v>-0.009557223367281376</v>
       </c>
       <c r="D94">
-        <v>0.002527899347999503</v>
+        <v>0.1463397195146626</v>
       </c>
       <c r="E94">
-        <v>-0.3558221582530604</v>
+        <v>-0.06768960140964944</v>
       </c>
       <c r="F94">
-        <v>0.4233816603238345</v>
+        <v>0.3526894981573333</v>
       </c>
       <c r="G94">
-        <v>0.01762535871198821</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1717271716391856</v>
+      </c>
+      <c r="H94">
+        <v>-0.08689030799185862</v>
+      </c>
+      <c r="I94">
+        <v>-0.1223365490621854</v>
+      </c>
+      <c r="J94">
+        <v>-0.3187550594549955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2001761398673424</v>
+        <v>0.1371351761323294</v>
       </c>
       <c r="C95">
-        <v>0.02318931334427377</v>
+        <v>-0.06257756971019958</v>
       </c>
       <c r="D95">
-        <v>0.01142881810100064</v>
+        <v>0.04471735159215593</v>
       </c>
       <c r="E95">
-        <v>-0.4573565494103327</v>
+        <v>0.02965048598491427</v>
       </c>
       <c r="F95">
-        <v>-0.8161043925912286</v>
+        <v>0.04866350640262018</v>
       </c>
       <c r="G95">
-        <v>-0.1070079092733679</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9347409549849384</v>
+      </c>
+      <c r="H95">
+        <v>0.04994351224913627</v>
+      </c>
+      <c r="I95">
+        <v>0.05191873552990369</v>
+      </c>
+      <c r="J95">
+        <v>-0.202495238214508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2151595377600092</v>
+        <v>0.2049678384913439</v>
       </c>
       <c r="C98">
-        <v>0.1386903939070095</v>
+        <v>0.07695494813925938</v>
       </c>
       <c r="D98">
-        <v>0.02601998140123783</v>
+        <v>-0.002531912246179342</v>
       </c>
       <c r="E98">
-        <v>0.1054160093281457</v>
+        <v>0.1437575836217365</v>
       </c>
       <c r="F98">
-        <v>-0.04596596136795462</v>
+        <v>-0.1274859945855753</v>
       </c>
       <c r="G98">
-        <v>0.2531544924307615</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0445587943280107</v>
+      </c>
+      <c r="H98">
+        <v>0.3097059832935598</v>
+      </c>
+      <c r="I98">
+        <v>0.1973345799024371</v>
+      </c>
+      <c r="J98">
+        <v>0.006662295496484076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01849925177415761</v>
+        <v>0.01213581405736081</v>
       </c>
       <c r="C101">
-        <v>-0.01833034477820792</v>
+        <v>-0.0288656874909776</v>
       </c>
       <c r="D101">
-        <v>-0.0244075805727875</v>
+        <v>0.02629697711195806</v>
       </c>
       <c r="E101">
-        <v>0.02878579403533871</v>
+        <v>-0.003543928274069349</v>
       </c>
       <c r="F101">
-        <v>-0.007179755499276051</v>
+        <v>-0.06669301702121776</v>
       </c>
       <c r="G101">
-        <v>-0.03799842770962249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.009091963898828355</v>
+      </c>
+      <c r="H101">
+        <v>-0.1142973713194182</v>
+      </c>
+      <c r="I101">
+        <v>0.01424098184904089</v>
+      </c>
+      <c r="J101">
+        <v>-0.1898638256384959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1201153640152632</v>
+        <v>0.1216240756291371</v>
       </c>
       <c r="C102">
-        <v>-0.01219317219013621</v>
+        <v>-0.02893951419300164</v>
       </c>
       <c r="D102">
-        <v>-0.03553991824622029</v>
+        <v>0.05076021854143015</v>
       </c>
       <c r="E102">
-        <v>-0.08836694749843434</v>
+        <v>-0.04717035126772273</v>
       </c>
       <c r="F102">
-        <v>0.007915792807895916</v>
+        <v>0.08019791482024795</v>
       </c>
       <c r="G102">
-        <v>6.705982682126108e-05</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03008971508000483</v>
+      </c>
+      <c r="H102">
+        <v>0.01478590770740314</v>
+      </c>
+      <c r="I102">
+        <v>-0.03736536947580307</v>
+      </c>
+      <c r="J102">
+        <v>0.04514183187798458</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01965466747278652</v>
+        <v>0.03151150371555739</v>
       </c>
       <c r="C103">
-        <v>-0.0001838167311084087</v>
+        <v>-0.006315189745760959</v>
       </c>
       <c r="D103">
-        <v>-0.01170975281127484</v>
+        <v>0.01752714325336036</v>
       </c>
       <c r="E103">
-        <v>-0.02244140866666633</v>
+        <v>-0.02373684860596411</v>
       </c>
       <c r="F103">
-        <v>0.01011503062297646</v>
+        <v>0.01167385775166828</v>
       </c>
       <c r="G103">
-        <v>0.005042699071331269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0151351476563456</v>
+      </c>
+      <c r="H103">
+        <v>-0.01381881462415684</v>
+      </c>
+      <c r="I103">
+        <v>-0.02967639812130804</v>
+      </c>
+      <c r="J103">
+        <v>0.01379109325013509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
